--- a/horarios_optimizados-550-push_gap_0.80.xlsx
+++ b/horarios_optimizados-550-push_gap_0.80.xlsx
@@ -612,27 +612,95 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
       <c r="M5" s="4" t="inlineStr"/>
       <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W5" s="4" t="inlineStr"/>
       <c r="X5" s="4" t="inlineStr"/>
       <c r="Y5" s="4" t="inlineStr"/>
@@ -648,26 +716,30 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
       <c r="O6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -683,7 +755,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -704,16 +780,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W6" s="4" t="inlineStr"/>
+      <c r="X6" s="4" t="inlineStr"/>
       <c r="Y6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
@@ -722,90 +790,26 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
       <c r="V7" s="4" t="inlineStr"/>
       <c r="W7" s="4" t="inlineStr"/>
       <c r="X7" s="4" t="inlineStr"/>
@@ -825,11 +829,7 @@
       <c r="G8" s="4" t="inlineStr"/>
       <c r="H8" s="4" t="inlineStr"/>
       <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -850,12 +850,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr"/>
       <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -946,7 +946,11 @@
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -962,26 +966,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P9" s="4" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr"/>
       <c r="T9" s="4" t="inlineStr"/>
       <c r="U9" s="4" t="inlineStr"/>
       <c r="V9" s="4" t="inlineStr"/>
@@ -1001,9 +989,21 @@
       <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1034,7 +1034,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1045,11 +1049,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T10" s="4" t="inlineStr"/>
       <c r="U10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1272,84 +1272,24 @@
       <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
       <c r="K15" s="4" t="inlineStr"/>
       <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N15" s="4" t="inlineStr"/>
+      <c r="O15" s="4" t="inlineStr"/>
+      <c r="P15" s="4" t="inlineStr"/>
+      <c r="Q15" s="4" t="inlineStr"/>
+      <c r="R15" s="4" t="inlineStr"/>
+      <c r="S15" s="4" t="inlineStr"/>
+      <c r="T15" s="4" t="inlineStr"/>
+      <c r="U15" s="4" t="inlineStr"/>
+      <c r="V15" s="4" t="inlineStr"/>
+      <c r="W15" s="4" t="inlineStr"/>
+      <c r="X15" s="4" t="inlineStr"/>
       <c r="Y15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1383,17 +1323,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G16" s="4" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr"/>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1419,9 +1359,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="4" t="inlineStr"/>
-      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R16" s="4" t="inlineStr"/>
       <c r="S16" s="4" t="inlineStr"/>
       <c r="T16" s="4" t="inlineStr"/>
@@ -1437,26 +1389,90 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K17" s="4" t="inlineStr"/>
       <c r="L17" s="4" t="inlineStr"/>
       <c r="M17" s="4" t="inlineStr"/>
       <c r="N17" s="4" t="inlineStr"/>
-      <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr"/>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V17" s="4" t="inlineStr"/>
       <c r="W17" s="4" t="inlineStr"/>
       <c r="X17" s="4" t="inlineStr"/>
@@ -1509,11 +1525,7 @@
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="4" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1529,7 +1541,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr"/>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P18" s="4" t="inlineStr"/>
       <c r="Q18" s="4" t="inlineStr"/>
       <c r="R18" s="4" t="inlineStr"/>
@@ -1556,7 +1572,11 @@
       <c r="H19" s="4" t="inlineStr"/>
       <c r="I19" s="4" t="inlineStr"/>
       <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1636,31 +1656,11 @@
       <c r="E20" s="4" t="inlineStr"/>
       <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
       <c r="M20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1922,31 +1922,11 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr"/>
@@ -1971,11 +1951,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2011,8 +1987,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2025,11 +2009,7 @@
       <c r="C26" s="4" t="inlineStr"/>
       <c r="D26" s="4" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2053,11 +2033,7 @@
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N26" s="4" t="inlineStr"/>
       <c r="O26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2098,8 +2074,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2113,11 +2097,7 @@
       <c r="D27" s="4" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr"/>
       <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G27" s="4" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2133,8 +2113,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="4" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2145,11 +2133,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O27" s="4" t="inlineStr"/>
       <c r="P27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2210,9 +2194,21 @@
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2228,11 +2224,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O28" s="4" t="inlineStr"/>
       <c r="P28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2253,7 +2245,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2291,11 +2287,7 @@
       <c r="H29" s="4" t="inlineStr"/>
       <c r="I29" s="4" t="inlineStr"/>
       <c r="J29" s="4" t="inlineStr"/>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K29" s="4" t="inlineStr"/>
       <c r="L29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2321,17 +2313,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q29" s="4" t="inlineStr"/>
       <c r="R29" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2405,10 +2397,18 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J30" s="4" t="inlineStr"/>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K30" s="4" t="inlineStr"/>
       <c r="L30" s="4" t="inlineStr"/>
-      <c r="M30" s="4" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2586,17 +2586,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2617,29 +2629,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2660,29 +2672,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -2756,19 +2756,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2789,17 +2789,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>0.5</v>
@@ -2875,29 +2875,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2923,21 +2911,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
         <v>0.5</v>
@@ -2961,17 +2949,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3002,19 +3002,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -3144,29 +3144,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3197,19 +3197,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3230,17 +3230,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3252,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -3273,17 +3273,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I19" t="n">
         <v>0.5</v>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>0.5</v>
@@ -3364,12 +3364,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3378,10 +3378,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
